--- a/grad_banjaluka/obrazovanje/djeciji_vrtici/bl_vrtici.xlsx
+++ b/grad_banjaluka/obrazovanje/djeciji_vrtici/bl_vrtici.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GoogleDrive\Learning\opendata\open-data\grad_banjaluka\djeciji_vrtici\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A064E35-6400-477D-A7EF-1B751ECCCDBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4F366E-F9FC-4A79-9084-209226C34C14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{66D21305-4DCD-45D4-B63F-60C9BAEEDD89}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="291">
   <si>
     <t>telefon</t>
   </si>
@@ -894,13 +894,10 @@
     <t>Drakulić</t>
   </si>
   <si>
-    <t xml:space="preserve"> info@vrticsreca.com </t>
-  </si>
-  <si>
     <t xml:space="preserve">info@vrticliliput.ba </t>
   </si>
   <si>
-    <t xml:space="preserve">www.vrticliliput.ba/ </t>
+    <t>info@vrticsreca.com</t>
   </si>
 </sst>
 </file>
@@ -1265,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8082B26A-0C56-4199-9B67-77FB7D9D35DE}">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2501,8 +2498,8 @@
       <c r="I41" t="s">
         <v>97</v>
       </c>
-      <c r="J41" t="s">
-        <v>289</v>
+      <c r="J41" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>96</v>
@@ -2772,11 +2769,9 @@
         <v>118</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>291</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -3385,7 +3380,7 @@
     <hyperlink ref="K41" r:id="rId15" xr:uid="{BE3E6279-887B-4098-BF3F-50A4B1794410}"/>
     <hyperlink ref="K40" r:id="rId16" xr:uid="{EDAF25CE-0E5C-40A6-8024-2F37F632AAFF}"/>
     <hyperlink ref="J50" r:id="rId17" xr:uid="{31B14FE3-874F-42CB-990C-FE21C0DD7F88}"/>
-    <hyperlink ref="K50" r:id="rId18" xr:uid="{4BF37A8B-BC29-49FC-A487-E8E1884A918E}"/>
+    <hyperlink ref="J41" r:id="rId18" xr:uid="{E5728823-355F-45BB-A6BD-2ED7D79C7C1F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
